--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>801174.7738727451</v>
+        <v>866924.8496346879</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298022</v>
+        <v>404724.2260944793</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958494</v>
+        <v>11762410.58428957</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7610492.792834665</v>
+        <v>7603174.149153669</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>63.88882306452232</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,26 +895,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>234.288905720311</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>191.008232003392</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.63346020225362</v>
+        <v>38.19053515138899</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>22.39730795084131</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>37.14341561367267</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207136</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>161.6448423772186</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9863995095175</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9058271976456</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>193.8209438199399</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>43.14648139771918</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379247</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>85.20886555991265</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,13 +1697,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207136</v>
+        <v>56.66199767592523</v>
       </c>
       <c r="S15" t="n">
-        <v>15.75508724462651</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T15" t="n">
-        <v>197.9863995095175</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9058271976456</v>
+        <v>178.6384617472227</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>106.0188137492813</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>112.6096278754482</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393327</v>
+        <v>67.62176764444241</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379247</v>
+        <v>148.4406437183613</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>175.3647005150866</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>58.21273057309007</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>56.66199767592523</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9058271976456</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>143.0623656467916</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>96.9765048813309</v>
+        <v>128.160669824904</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>67.62176764444241</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>296.2048092376884</v>
+        <v>260.3734089558684</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2168,16 +2168,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207136</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9863995095175</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U21" t="n">
-        <v>92.59194012707056</v>
+        <v>98.65749684574502</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.537897457236</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.76952365815122</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>150.9660839291479</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>109.4741142561152</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -2377,13 +2377,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>304.5250536616118</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>70.80276983270103</v>
       </c>
       <c r="H25" t="n">
-        <v>94.63926978364033</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>95.76820187908504</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>98.9246573280012</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>262.9810209066301</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>22.40342915257634</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>136.1286387281321</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>67.17737911999787</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>96.53241147262399</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>300.0433127626324</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>62.953695695055</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>48.73391285846883</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>306.6626922808583</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>375.431989707653</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>165.5281072365806</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>38.85099796338668</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48.37651464118714</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -3799,13 +3799,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>111.7595127098984</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.769908071584585</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>292.1380595743622</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>116.1882235105911</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>59.66385641544537</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
         <v>506.1786963984129</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
         <v>19.28114311021272</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X3" t="n">
-        <v>257.2326523711826</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4546,19 +4546,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4588,16 +4588,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
         <v>749.627473042513</v>
@@ -4606,13 +4606,13 @@
         <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X5" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="X5" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.9366034337592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>255.9366034337592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>255.9366034337592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>255.9366034337592</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>255.9366034337592</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>255.9366034337592</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>255.9366034337592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>255.9366034337592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.9366034337592</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>328.2071404297052</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C9" t="n">
-        <v>328.2071404297052</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
         <v>20.03527576299844</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>771.1195474264018</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>535.9674391946592</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>535.9674391946592</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>535.9674391946592</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y9" t="n">
-        <v>328.2071404297052</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1328.472252390234</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="C11" t="n">
-        <v>959.5097354498218</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="D11" t="n">
-        <v>601.2440368430714</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="E11" t="n">
-        <v>215.4557842448272</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="F11" t="n">
-        <v>215.4557842448272</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="G11" t="n">
-        <v>215.4557842448272</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H11" t="n">
-        <v>215.4557842448272</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856227</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953285</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803413</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.883192613821</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300944</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170708</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755287</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.393835800052</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>2109.393835800052</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>2109.393835800052</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>2109.393835800052</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.393835800052</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>2109.393835800052</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>1756.625180529938</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>1756.625180529938</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y11" t="n">
-        <v>1366.485848554126</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>377.4493816410146</v>
+        <v>59.61112272616083</v>
       </c>
       <c r="C12" t="n">
-        <v>202.9963523598875</v>
+        <v>59.61112272616083</v>
       </c>
       <c r="D12" t="n">
-        <v>202.9963523598875</v>
+        <v>59.61112272616083</v>
       </c>
       <c r="E12" t="n">
-        <v>180.3728089751993</v>
+        <v>59.61112272616083</v>
       </c>
       <c r="F12" t="n">
-        <v>180.3728089751993</v>
+        <v>59.61112272616083</v>
       </c>
       <c r="G12" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147169</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>303.7504955284377</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L12" t="n">
-        <v>649.8831383448792</v>
+        <v>212.4252932779024</v>
       </c>
       <c r="M12" t="n">
-        <v>827.1688172098179</v>
+        <v>485.8202418432343</v>
       </c>
       <c r="N12" t="n">
-        <v>1310.841828599076</v>
+        <v>759.2151904085662</v>
       </c>
       <c r="O12" t="n">
-        <v>1686.892462576446</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P12" t="n">
-        <v>1971.703181875405</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.393835800052</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>2042.117567525232</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1878.839948962385</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T12" t="n">
-        <v>1678.85368683156</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="U12" t="n">
-        <v>1450.665982591514</v>
+        <v>502.5235297228575</v>
       </c>
       <c r="V12" t="n">
-        <v>1215.513874359771</v>
+        <v>267.3714214911147</v>
       </c>
       <c r="W12" t="n">
-        <v>961.2765176315693</v>
+        <v>267.3714214911147</v>
       </c>
       <c r="X12" t="n">
-        <v>753.4250174260364</v>
+        <v>267.3714214911147</v>
       </c>
       <c r="Y12" t="n">
-        <v>545.6647186610826</v>
+        <v>59.61112272616083</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701804</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>166.2559978081031</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053806</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503604</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>475.827789687162</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842141</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842141</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842141</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842141</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842141</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>331.6050467529616</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>331.6050467529616</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.18787671600104</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>871.6512250791529</v>
+        <v>869.1291995870329</v>
       </c>
       <c r="C14" t="n">
-        <v>871.6512250791529</v>
+        <v>869.1291995870329</v>
       </c>
       <c r="D14" t="n">
-        <v>871.6512250791529</v>
+        <v>510.8635009802824</v>
       </c>
       <c r="E14" t="n">
-        <v>871.6512250791529</v>
+        <v>510.8635009802824</v>
       </c>
       <c r="F14" t="n">
-        <v>460.6653202895453</v>
+        <v>510.8635009802824</v>
       </c>
       <c r="G14" t="n">
-        <v>42.18787671600104</v>
+        <v>92.68834428104486</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600104</v>
+        <v>92.68834428104486</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856228</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953287</v>
+        <v>415.1943883367683</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803413</v>
+        <v>799.8264852341949</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.883192613821</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300944</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170708</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755287</v>
+        <v>2325.21354847844</v>
       </c>
       <c r="Q14" t="n">
-        <v>2109.393835800052</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R14" t="n">
-        <v>2109.393835800052</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="S14" t="n">
-        <v>1921.511879802148</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="T14" t="n">
-        <v>1700.628773496708</v>
+        <v>2235.742146432051</v>
       </c>
       <c r="U14" t="n">
-        <v>1700.628773496708</v>
+        <v>1981.963453182349</v>
       </c>
       <c r="V14" t="n">
-        <v>1700.628773496708</v>
+        <v>1981.963453182349</v>
       </c>
       <c r="W14" t="n">
-        <v>1347.860118226594</v>
+        <v>1629.194797912234</v>
       </c>
       <c r="X14" t="n">
-        <v>1261.790557054965</v>
+        <v>1255.729039651155</v>
       </c>
       <c r="Y14" t="n">
-        <v>871.6512250791529</v>
+        <v>1255.729039651155</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>524.8127706638348</v>
+        <v>784.8004026581915</v>
       </c>
       <c r="C15" t="n">
-        <v>350.3597413827078</v>
+        <v>610.3473733770645</v>
       </c>
       <c r="D15" t="n">
-        <v>201.4253317214565</v>
+        <v>461.4129637158133</v>
       </c>
       <c r="E15" t="n">
-        <v>42.18787671600104</v>
+        <v>302.1755087103578</v>
       </c>
       <c r="F15" t="n">
-        <v>42.18787671600104</v>
+        <v>155.6409507372428</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600104</v>
+        <v>155.6409507372428</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J15" t="n">
-        <v>91.99734226147169</v>
+        <v>113.8920892923635</v>
       </c>
       <c r="K15" t="n">
-        <v>303.7504955284377</v>
+        <v>351.2426098932702</v>
       </c>
       <c r="L15" t="n">
-        <v>649.8831383448792</v>
+        <v>547.5631775848218</v>
       </c>
       <c r="M15" t="n">
-        <v>827.1688172098179</v>
+        <v>1043.628006052599</v>
       </c>
       <c r="N15" t="n">
-        <v>1310.841828599076</v>
+        <v>1568.529207830409</v>
       </c>
       <c r="O15" t="n">
-        <v>1686.892462576446</v>
+        <v>1982.295581432526</v>
       </c>
       <c r="P15" t="n">
-        <v>1971.703181875405</v>
+        <v>2297.376506858684</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.393835800052</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R15" t="n">
-        <v>2042.117567525232</v>
+        <v>2398.06765085842</v>
       </c>
       <c r="S15" t="n">
-        <v>2026.203337985206</v>
+        <v>2237.794239814737</v>
       </c>
       <c r="T15" t="n">
-        <v>1826.21707585438</v>
+        <v>2038.459894262451</v>
       </c>
       <c r="U15" t="n">
-        <v>1598.029371614334</v>
+        <v>1858.01700360869</v>
       </c>
       <c r="V15" t="n">
-        <v>1362.877263382591</v>
+        <v>1622.864895376948</v>
       </c>
       <c r="W15" t="n">
-        <v>1108.63990665439</v>
+        <v>1368.627538648746</v>
       </c>
       <c r="X15" t="n">
-        <v>900.7884064488567</v>
+        <v>1160.776038443213</v>
       </c>
       <c r="Y15" t="n">
-        <v>693.0281076839028</v>
+        <v>953.0157396782595</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>299.3942269861967</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="C16" t="n">
-        <v>299.3942269861967</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="D16" t="n">
-        <v>149.277587573861</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="E16" t="n">
-        <v>149.277587573861</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="F16" t="n">
-        <v>149.277587573861</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="G16" t="n">
-        <v>149.277587573861</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701804</v>
+        <v>94.61295399245034</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081031</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053806</v>
+        <v>338.7052604257292</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503604</v>
+        <v>471.3735460023453</v>
       </c>
       <c r="O16" t="n">
-        <v>475.827789687162</v>
+        <v>577.8978852021173</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842141</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842141</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842141</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842141</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842141</v>
+        <v>531.7800789428085</v>
       </c>
       <c r="U16" t="n">
-        <v>527.3837778842141</v>
+        <v>531.7800789428085</v>
       </c>
       <c r="V16" t="n">
-        <v>527.3837778842141</v>
+        <v>277.0955907369216</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3837778842141</v>
+        <v>277.0955907369216</v>
       </c>
       <c r="X16" t="n">
-        <v>299.3942269861967</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="Y16" t="n">
-        <v>299.3942269861967</v>
+        <v>49.10603983890427</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>829.6278372299571</v>
+        <v>793.159991043899</v>
       </c>
       <c r="C17" t="n">
-        <v>460.6653202895453</v>
+        <v>793.159991043899</v>
       </c>
       <c r="D17" t="n">
-        <v>460.6653202895453</v>
+        <v>434.8942924371485</v>
       </c>
       <c r="E17" t="n">
-        <v>460.6653202895453</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="F17" t="n">
-        <v>460.6653202895453</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856228</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953287</v>
+        <v>415.1943883367685</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803413</v>
+        <v>799.8264852341949</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.883192613821</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300944</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170708</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755287</v>
+        <v>2325.21354847844</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.393835800052</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129412</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="S17" t="n">
-        <v>1834.218536131508</v>
+        <v>2237.057131982785</v>
       </c>
       <c r="T17" t="n">
-        <v>1613.335429826068</v>
+        <v>2237.057131982785</v>
       </c>
       <c r="U17" t="n">
-        <v>1359.532553626421</v>
+        <v>2237.057131982785</v>
       </c>
       <c r="V17" t="n">
-        <v>1182.396492500071</v>
+        <v>1905.994244639215</v>
       </c>
       <c r="W17" t="n">
-        <v>829.6278372299571</v>
+        <v>1553.225589369101</v>
       </c>
       <c r="X17" t="n">
-        <v>829.6278372299571</v>
+        <v>1179.759831108021</v>
       </c>
       <c r="Y17" t="n">
-        <v>829.6278372299571</v>
+        <v>1179.759831108021</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>671.3473286369498</v>
+        <v>737.0662297124693</v>
       </c>
       <c r="C18" t="n">
-        <v>496.8942993558228</v>
+        <v>562.6132004313423</v>
       </c>
       <c r="D18" t="n">
-        <v>347.9598896945715</v>
+        <v>413.678790770091</v>
       </c>
       <c r="E18" t="n">
-        <v>188.7224346891161</v>
+        <v>254.4413357646355</v>
       </c>
       <c r="F18" t="n">
-        <v>42.18787671600104</v>
+        <v>107.9067777915205</v>
       </c>
       <c r="G18" t="n">
-        <v>42.18787671600104</v>
+        <v>107.9067777915205</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J18" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K18" t="n">
-        <v>162.8271385329679</v>
+        <v>167.0117154765659</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9597813494094</v>
+        <v>547.5631775848218</v>
       </c>
       <c r="M18" t="n">
-        <v>964.8594711344649</v>
+        <v>1043.628006052599</v>
       </c>
       <c r="N18" t="n">
-        <v>1448.532482523723</v>
+        <v>1568.529207830409</v>
       </c>
       <c r="O18" t="n">
-        <v>1824.583116501093</v>
+        <v>1982.295581432526</v>
       </c>
       <c r="P18" t="n">
-        <v>2109.393835800052</v>
+        <v>2297.376506858684</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.393835800052</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.393835800052</v>
+        <v>2398.06765085842</v>
       </c>
       <c r="S18" t="n">
-        <v>2109.393835800052</v>
+        <v>2237.794239814737</v>
       </c>
       <c r="T18" t="n">
-        <v>1909.407573669226</v>
+        <v>2038.459894262451</v>
       </c>
       <c r="U18" t="n">
-        <v>1681.21986942918</v>
+        <v>1810.282830662968</v>
       </c>
       <c r="V18" t="n">
-        <v>1446.067761197437</v>
+        <v>1575.130722431226</v>
       </c>
       <c r="W18" t="n">
-        <v>1191.830404469236</v>
+        <v>1320.893365703024</v>
       </c>
       <c r="X18" t="n">
-        <v>1047.322964421972</v>
+        <v>1113.041865497491</v>
       </c>
       <c r="Y18" t="n">
-        <v>839.5626656570178</v>
+        <v>905.2815667325374</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>309.0801251806058</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="C19" t="n">
-        <v>140.1439422526989</v>
+        <v>476.5909948789907</v>
       </c>
       <c r="D19" t="n">
-        <v>140.1439422526989</v>
+        <v>326.474355466655</v>
       </c>
       <c r="E19" t="n">
-        <v>140.1439422526989</v>
+        <v>178.5612618842619</v>
       </c>
       <c r="F19" t="n">
-        <v>140.1439422526989</v>
+        <v>178.5612618842619</v>
       </c>
       <c r="G19" t="n">
-        <v>140.1439422526989</v>
+        <v>178.5612618842619</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701804</v>
+        <v>94.61295399245034</v>
       </c>
       <c r="L19" t="n">
-        <v>166.2559978081031</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053806</v>
+        <v>338.7052604257292</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503604</v>
+        <v>471.3735460023453</v>
       </c>
       <c r="O19" t="n">
-        <v>475.827789687162</v>
+        <v>577.8978852021173</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842141</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842141</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842141</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="S19" t="n">
-        <v>309.0801251806058</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="T19" t="n">
-        <v>309.0801251806058</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="U19" t="n">
-        <v>309.0801251806058</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="V19" t="n">
-        <v>309.0801251806058</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="W19" t="n">
-        <v>309.0801251806058</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="X19" t="n">
-        <v>309.0801251806058</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="Y19" t="n">
-        <v>309.0801251806058</v>
+        <v>645.5271778068976</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>871.6512250791529</v>
+        <v>1264.055353925994</v>
       </c>
       <c r="C20" t="n">
-        <v>871.6512250791529</v>
+        <v>1264.055353925994</v>
       </c>
       <c r="D20" t="n">
-        <v>871.6512250791529</v>
+        <v>1264.055353925994</v>
       </c>
       <c r="E20" t="n">
-        <v>871.6512250791529</v>
+        <v>878.2671013277493</v>
       </c>
       <c r="F20" t="n">
-        <v>460.6653202895453</v>
+        <v>467.2811965381418</v>
       </c>
       <c r="G20" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856227</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953285</v>
+        <v>415.1943883367685</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803412</v>
+        <v>799.8264852341949</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.883192613821</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300944</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170708</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755287</v>
+        <v>2325.21354847844</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.393835800052</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R20" t="n">
-        <v>2109.393835800052</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="S20" t="n">
-        <v>2109.393835800052</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="T20" t="n">
-        <v>1888.510729494611</v>
+        <v>2167.437330629584</v>
       </c>
       <c r="U20" t="n">
-        <v>1888.510729494611</v>
+        <v>1913.658637379881</v>
       </c>
       <c r="V20" t="n">
-        <v>1557.447842151041</v>
+        <v>1913.658637379881</v>
       </c>
       <c r="W20" t="n">
-        <v>1557.447842151041</v>
+        <v>1913.658637379881</v>
       </c>
       <c r="X20" t="n">
-        <v>1258.251065143275</v>
+        <v>1650.655193990115</v>
       </c>
       <c r="Y20" t="n">
-        <v>1258.251065143275</v>
+        <v>1650.655193990115</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>512.1098736314943</v>
+        <v>922.8235971808209</v>
       </c>
       <c r="C21" t="n">
-        <v>337.6568443503674</v>
+        <v>748.3705678996939</v>
       </c>
       <c r="D21" t="n">
-        <v>188.7224346891161</v>
+        <v>599.4361582384427</v>
       </c>
       <c r="E21" t="n">
-        <v>188.7224346891161</v>
+        <v>440.1987032329872</v>
       </c>
       <c r="F21" t="n">
-        <v>42.18787671600104</v>
+        <v>293.6641452598722</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600104</v>
+        <v>155.6409507372428</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600104</v>
+        <v>113.8920892923635</v>
       </c>
       <c r="K21" t="n">
-        <v>253.9410299829671</v>
+        <v>324.937200563095</v>
       </c>
       <c r="L21" t="n">
-        <v>600.0736727994085</v>
+        <v>705.4886626713509</v>
       </c>
       <c r="M21" t="n">
-        <v>1055.973362584464</v>
+        <v>1201.553491139128</v>
       </c>
       <c r="N21" t="n">
-        <v>1539.646373973722</v>
+        <v>1726.454692916938</v>
       </c>
       <c r="O21" t="n">
-        <v>1915.697007951092</v>
+        <v>2140.221066519055</v>
       </c>
       <c r="P21" t="n">
-        <v>2109.393835800052</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.393835800052</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R21" t="n">
-        <v>2042.117567525232</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="S21" t="n">
-        <v>1878.839948962385</v>
+        <v>2295.028580901531</v>
       </c>
       <c r="T21" t="n">
-        <v>1678.85368683156</v>
+        <v>2095.694235349244</v>
       </c>
       <c r="U21" t="n">
-        <v>1585.326474581993</v>
+        <v>1996.04019813132</v>
       </c>
       <c r="V21" t="n">
-        <v>1350.174366350251</v>
+        <v>1760.888089899577</v>
       </c>
       <c r="W21" t="n">
-        <v>1095.937009622049</v>
+        <v>1506.650733171376</v>
       </c>
       <c r="X21" t="n">
-        <v>888.0855094165163</v>
+        <v>1298.799232965843</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.3252106515624</v>
+        <v>1091.038934200889</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3837778842141</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3837778842141</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="D22" t="n">
-        <v>377.2671384718783</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="E22" t="n">
-        <v>377.2671384718783</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="F22" t="n">
-        <v>230.3771909739679</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="G22" t="n">
-        <v>61.14699152221439</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600104</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701804</v>
+        <v>94.61295399245034</v>
       </c>
       <c r="L22" t="n">
-        <v>166.2559978081031</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053806</v>
+        <v>338.7052604257292</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503604</v>
+        <v>471.3735460023453</v>
       </c>
       <c r="O22" t="n">
-        <v>475.827789687162</v>
+        <v>577.8978852021173</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842141</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842141</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842141</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="S22" t="n">
-        <v>527.3837778842141</v>
+        <v>429.5865846047478</v>
       </c>
       <c r="T22" t="n">
-        <v>527.3837778842141</v>
+        <v>429.5865846047478</v>
       </c>
       <c r="U22" t="n">
-        <v>527.3837778842141</v>
+        <v>429.5865846047478</v>
       </c>
       <c r="V22" t="n">
-        <v>527.3837778842141</v>
+        <v>429.5865846047478</v>
       </c>
       <c r="W22" t="n">
-        <v>527.3837778842141</v>
+        <v>429.5865846047478</v>
       </c>
       <c r="X22" t="n">
-        <v>527.3837778842141</v>
+        <v>201.5970337067305</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.3837778842141</v>
+        <v>49.10603983890427</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1309.714918859355</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C23" t="n">
-        <v>940.7524019189434</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D23" t="n">
-        <v>582.486703312193</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E23" t="n">
-        <v>582.486703312193</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F23" t="n">
-        <v>582.486703312193</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G23" t="n">
-        <v>164.5228952103798</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>164.5228952103798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.483574129469</v>
+        <v>1862.122884854211</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859355</v>
+        <v>1509.354229584097</v>
       </c>
       <c r="X23" t="n">
-        <v>1309.714918859355</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="Y23" t="n">
-        <v>1309.714918859355</v>
+        <v>1135.888471323017</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6080,13 +6080,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D25" t="n">
-        <v>149.5382038240415</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5382038240415</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F25" t="n">
-        <v>149.5382038240415</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G25" t="n">
-        <v>149.5382038240415</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>882.8926947117852</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8926947117852</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>631.3392352428932</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6268,10 +6268,10 @@
         <v>1759.555763042629</v>
       </c>
       <c r="X26" t="n">
-        <v>1659.631866751719</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y26" t="n">
-        <v>1269.492534775907</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="27">
@@ -6417,16 +6417,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y28" t="n">
         <v>53.94298182036445</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1534.318342165211</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C29" t="n">
-        <v>1534.318342165211</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D29" t="n">
-        <v>1534.318342165211</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E29" t="n">
-        <v>1148.530089566967</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>737.5441847773595</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>319.5803766755464</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V29" t="n">
-        <v>2311.057514205145</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W29" t="n">
-        <v>2311.057514205145</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X29" t="n">
-        <v>2311.057514205145</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y29" t="n">
-        <v>1920.918182229333</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="30">
@@ -6533,10 +6533,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>369.8327295799424</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C31" t="n">
-        <v>369.8327295799424</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D31" t="n">
-        <v>369.8327295799424</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E31" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
         <v>222.942782082032</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>590.6253087234725</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>590.6253087234725</v>
+        <v>660.2730457013859</v>
       </c>
       <c r="T31" t="n">
-        <v>590.6253087234725</v>
+        <v>660.2730457013859</v>
       </c>
       <c r="U31" t="n">
-        <v>590.6253087234725</v>
+        <v>660.2730457013859</v>
       </c>
       <c r="V31" t="n">
-        <v>590.6253087234725</v>
+        <v>660.2730457013859</v>
       </c>
       <c r="W31" t="n">
-        <v>590.6253087234725</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X31" t="n">
-        <v>590.6253087234725</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y31" t="n">
-        <v>369.8327295799424</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1366.188433646013</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.188433646013</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D32" t="n">
-        <v>1366.188433646013</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E32" t="n">
-        <v>980.4001810477689</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F32" t="n">
-        <v>569.4142762581614</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>151.4504681563483</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>151.4504681563483</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2092.422847177207</v>
+        <v>2085.284562891219</v>
       </c>
       <c r="W32" t="n">
-        <v>1739.654191907093</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="X32" t="n">
-        <v>1366.188433646013</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y32" t="n">
-        <v>1366.188433646013</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>222.942782082032</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C34" t="n">
-        <v>222.942782082032</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D34" t="n">
-        <v>222.942782082032</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E34" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>286.5323736931987</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="U34" t="n">
-        <v>286.5323736931987</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="V34" t="n">
-        <v>286.5323736931987</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5323736931987</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="X34" t="n">
-        <v>222.942782082032</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.942782082032</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1226.657559460833</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C35" t="n">
         <v>857.6950425204218</v>
@@ -6928,16 +6928,16 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733124</v>
@@ -6949,7 +6949,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.483574129469</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>1662.483574129469</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X35" t="n">
-        <v>1613.257399524955</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y35" t="n">
-        <v>1613.257399524955</v>
+        <v>857.6950425204218</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7080,22 +7080,22 @@
         <v>149.5382038240415</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1422.14692331494</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="C38" t="n">
-        <v>1422.14692331494</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.14692331494</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>844.1531186379043</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>433.1672138482967</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W38" t="n">
-        <v>2198.886095354873</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X38" t="n">
-        <v>2198.886095354873</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y38" t="n">
-        <v>1808.746763379062</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="39">
@@ -7256,7 +7256,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
         <v>670.8219208598708</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1394.624369323446</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C41" t="n">
-        <v>1394.624369323446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D41" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.723949158869</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>2169.723949158869</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W41" t="n">
-        <v>1816.955293888755</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X41" t="n">
-        <v>1443.489535627675</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="Y41" t="n">
-        <v>1443.489535627675</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>55.73076775125796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>55.73076775125796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>55.73076775125796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>55.73076775125796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>224.6669506791649</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>224.6669506791649</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W43" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776797</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776797</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E44" t="n">
-        <v>1177.981643776797</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F44" t="n">
-        <v>766.99573898719</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>349.0319308853768</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7678,22 +7678,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1421.21712311552</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1303.85528118563</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>667.8624625746712</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V46" t="n">
-        <v>667.8624625746712</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W46" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>308.083461739839</v>
       </c>
       <c r="M12" t="n">
-        <v>184.2767698912961</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9011,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>184.7485327613336</v>
       </c>
       <c r="M15" t="n">
-        <v>184.2767698912961</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033748</v>
+        <v>60.65058134701566</v>
       </c>
       <c r="K18" t="n">
-        <v>172.4310032247006</v>
+        <v>143.8138784638462</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.99581912509466</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033748</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>237.8941164770481</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>226.428534852059</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.99581912509466</v>
+        <v>50.55659572925425</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,10 +10679,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P36" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,10 +22552,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>115.1799140023281</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>141.793872712782</v>
       </c>
     </row>
     <row r="4">
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22801,7 +22801,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>160.679581861839</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -23029,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>105.1858963954562</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,13 +23102,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>123.3973950460205</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>34.93315007758278</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>345.100381461227</v>
+        <v>344.5433065120916</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2926691378088</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393327</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379247</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2648474376504</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>135.2477725045596</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>100.1247728000666</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>70.7895772424515</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.537897457236</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022414</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385095</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>156.9211815276446</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>216.1206161765721</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>226.0096940321479</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>92.47337197830251</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I14" t="n">
-        <v>171.5352284535379</v>
+        <v>116.8513714813241</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393327</v>
+        <v>67.62176764444241</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>284.5222351185564</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8030829366063</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H15" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>70.7895772424515</v>
+        <v>65.27666136637443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>145.8897551325921</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>47.25683121626483</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.537897457236</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H16" t="n">
-        <v>52.18004876365046</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I16" t="n">
-        <v>141.8250664795777</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022414</v>
+        <v>51.83555490345136</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385095</v>
+        <v>36.98188228487138</v>
       </c>
       <c r="R16" t="n">
-        <v>156.9211815276446</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S16" t="n">
-        <v>216.1206161765721</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T16" t="n">
-        <v>226.0096940321479</v>
+        <v>112.826497254233</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I17" t="n">
-        <v>171.5352284535379</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>30.74301419278055</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V17" t="n">
-        <v>152.3875579550483</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H18" t="n">
-        <v>107.0159873637655</v>
+        <v>47.25683121626506</v>
       </c>
       <c r="I18" t="n">
-        <v>70.7895772424515</v>
+        <v>65.27666136637443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207136</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>62.71061955668588</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23895,25 +23895,25 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.537897457236</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H19" t="n">
-        <v>61.22235763160091</v>
+        <v>28.8446812271504</v>
       </c>
       <c r="I19" t="n">
-        <v>141.8250664795777</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022414</v>
+        <v>51.83555490345136</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385095</v>
+        <v>36.98188228487138</v>
       </c>
       <c r="R19" t="n">
-        <v>156.9211815276446</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T19" t="n">
-        <v>226.0096940321479</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2943157982424</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I20" t="n">
-        <v>171.5352284535379</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393327</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379247</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>73.52629144078065</v>
+        <v>109.3576917226006</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24056,19 +24056,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>70.7895772424515</v>
+        <v>65.27666136637443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>56.66199767592523</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>133.313887070575</v>
+        <v>127.2377961177425</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24132,25 +24132,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H22" t="n">
-        <v>139.4293388547806</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I22" t="n">
-        <v>141.8250664795777</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022414</v>
+        <v>51.83555490345136</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385095</v>
+        <v>36.98188228487138</v>
       </c>
       <c r="R22" t="n">
-        <v>156.9211815276446</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0096940321479</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>67.61856942294685</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.45720198874602</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>23.22720480852314</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24369,25 +24369,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>96.50703242634988</v>
       </c>
       <c r="H25" t="n">
-        <v>61.53161905815482</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>311.1078438626264</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>270.8064433504678</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24657,10 +24657,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>60.94175185772707</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>347.3276715258927</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>10.53655325202575</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>144.968159830021</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>55.39890477223726</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>27.70894570750249</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>184.0025971230543</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>162.7559596939822</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>320.9971878200002</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>79.57524637519532</v>
       </c>
     </row>
     <row r="36">
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>51.79469286292884</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>38.35218031314201</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>183.7128614808325</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>107.5829646831825</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25605,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>334.3573270222934</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25648,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>257.9715879685706</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5398941874663</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>31.78471318999493</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>270.0497151454625</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>165.3712490426389</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448752.9057247415</v>
+        <v>448752.9057247414</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>661726.9528505369</v>
+        <v>477458.0775964576</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>661726.9528505371</v>
+        <v>725161.4111586628</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661726.9528505368</v>
+        <v>725161.4111586628</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661726.952850537</v>
+        <v>725161.4111586629</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>149544.6052781992</v>
       </c>
       <c r="C2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="D2" t="n">
         <v>149544.6052781992</v>
       </c>
       <c r="E2" t="n">
-        <v>223045.808477644</v>
+        <v>159463.6497950859</v>
       </c>
       <c r="F2" t="n">
-        <v>223045.808477644</v>
+        <v>244933.927889552</v>
       </c>
       <c r="G2" t="n">
-        <v>223045.808477644</v>
+        <v>244933.9278895519</v>
       </c>
       <c r="H2" t="n">
-        <v>223045.8084776439</v>
+        <v>244933.927889552</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
@@ -26352,7 +26352,7 @@
         <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141816</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134257</v>
+        <v>38628.88112923566</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>326513.677765922</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116919</v>
+        <v>55256.55893426005</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871089</v>
+        <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>82704.2513137145</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>17772.15840295332</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="F4" t="n">
-        <v>17772.15840295332</v>
+        <v>18040.97808399887</v>
       </c>
       <c r="G4" t="n">
-        <v>17772.15840295332</v>
+        <v>18040.97808399887</v>
       </c>
       <c r="H4" t="n">
-        <v>17772.15840295332</v>
+        <v>18040.97808399887</v>
       </c>
       <c r="I4" t="n">
         <v>18228.92756966326</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730639</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730639</v>
+        <v>44420.77245688341</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730639</v>
+        <v>44420.77245688341</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730639</v>
+        <v>44420.77245688341</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8638.795278131511</v>
+        <v>2357.414279904876</v>
       </c>
       <c r="C6" t="n">
-        <v>72130.63625341613</v>
+        <v>83126.84581145261</v>
       </c>
       <c r="D6" t="n">
-        <v>72130.63625341619</v>
+        <v>83126.84581145261</v>
       </c>
       <c r="E6" t="n">
-        <v>-127752.804978335</v>
+        <v>85122.44495027175</v>
       </c>
       <c r="F6" t="n">
-        <v>159598.9050350907</v>
+        <v>-144733.3607980822</v>
       </c>
       <c r="G6" t="n">
-        <v>159598.9050350907</v>
+        <v>181780.3169678398</v>
       </c>
       <c r="H6" t="n">
-        <v>159598.9050350907</v>
+        <v>181780.3169678399</v>
       </c>
       <c r="I6" t="n">
-        <v>52419.82812359778</v>
+        <v>136913.543072267</v>
       </c>
       <c r="J6" t="n">
-        <v>123648.5870361835</v>
+        <v>129110.1594074208</v>
       </c>
       <c r="K6" t="n">
-        <v>186708.5296352897</v>
+        <v>192170.102006527</v>
       </c>
       <c r="L6" t="n">
-        <v>186708.5296352897</v>
+        <v>192170.1020065269</v>
       </c>
       <c r="M6" t="n">
-        <v>115352.9091165788</v>
+        <v>183412.5190113133</v>
       </c>
       <c r="N6" t="n">
-        <v>186708.5296352897</v>
+        <v>109465.8506928125</v>
       </c>
       <c r="O6" t="n">
-        <v>186708.5296352897</v>
+        <v>192170.102006527</v>
       </c>
       <c r="P6" t="n">
-        <v>186708.5296352897</v>
+        <v>192170.102006527</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598903</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598903</v>
+        <v>325.696430243861</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598903</v>
+        <v>325.696430243861</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598903</v>
+        <v>325.696430243861</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.348458950013</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>527.348458950013</v>
+        <v>613.8254979863034</v>
       </c>
       <c r="G4" t="n">
-        <v>527.348458950013</v>
+        <v>613.8254979863034</v>
       </c>
       <c r="H4" t="n">
-        <v>527.348458950013</v>
+        <v>613.8254979863034</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26819,19 +26819,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="P4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="P4" t="n">
-        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598903</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>290.6751695247356</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571963</v>
+        <v>52.04723397322567</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723539</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>337.6689842839479</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045425</v>
+        <v>60.46177476825221</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723539</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>337.6689842839479</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723539</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>337.6689842839479</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.010068377326191</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929186</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686803</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008891</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523066</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>159.3963654549031</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601777</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372558</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102184</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P11" t="n">
-        <v>145.2490952449781</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819838</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721642</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832061</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745405</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609528</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042923</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730929</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896357</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632922</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881681</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142346</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286402</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026664</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973818</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>103.199234025867</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092686</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057178</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S12" t="n">
-        <v>10.03832872661919</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304142</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922977</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507752</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I13" t="n">
-        <v>13.62540844768061</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644863</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933437</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269911</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985389</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N13" t="n">
-        <v>69.3338876662055</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464877</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970457</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784343</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952487</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400155</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93589539613358</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851382</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010068377326191</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929186</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686803</v>
+        <v>50.47803669136263</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008891</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523066</v>
+        <v>166.5519891000303</v>
       </c>
       <c r="L14" t="n">
-        <v>159.3963654549031</v>
+        <v>206.6224700128969</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601777</v>
+        <v>229.907309777115</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372558</v>
+        <v>233.6274504100009</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102184</v>
+        <v>220.6077765276395</v>
       </c>
       <c r="P14" t="n">
-        <v>145.2490952449781</v>
+        <v>188.2836333250453</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819838</v>
+        <v>141.393167362801</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721642</v>
+        <v>82.24735029670727</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832061</v>
+        <v>29.83641167510345</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745405</v>
+        <v>5.731602506100507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609528</v>
+        <v>0.1047465906311914</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042923</v>
+        <v>0.70055458580755</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730929</v>
+        <v>6.765882447141339</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896357</v>
+        <v>24.11997148504065</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632922</v>
+        <v>66.18704531965103</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881681</v>
+        <v>113.1242025687569</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142346</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M15" t="n">
-        <v>136.9337073286402</v>
+        <v>177.5045544829042</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026664</v>
+        <v>182.2025718587803</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973818</v>
+        <v>166.6797570890446</v>
       </c>
       <c r="P15" t="n">
-        <v>103.199234025867</v>
+        <v>133.7751998109172</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092686</v>
+        <v>89.42517835676726</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057178</v>
+        <v>43.4958364767179</v>
       </c>
       <c r="S15" t="n">
-        <v>10.03832872661919</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304142</v>
+        <v>2.823726598057624</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922977</v>
+        <v>0.04608911748733883</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.5873214315872902</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507752</v>
+        <v>5.221821455385184</v>
       </c>
       <c r="I16" t="n">
-        <v>13.62540844768061</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644863</v>
+        <v>41.52362521322141</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933437</v>
+        <v>68.2360717789597</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269911</v>
+        <v>87.31867901980496</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985389</v>
+        <v>92.06530404417857</v>
       </c>
       <c r="N16" t="n">
-        <v>69.3338876662055</v>
+        <v>89.87619689008056</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464877</v>
+        <v>83.01521471199266</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970457</v>
+        <v>71.03385750761187</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784343</v>
+        <v>49.180160966823</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952487</v>
+        <v>26.40810727846124</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400155</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T16" t="n">
-        <v>1.93589539613358</v>
+        <v>2.509464298600239</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851382</v>
+        <v>0.03203571445021586</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.010068377326191</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929186</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686803</v>
+        <v>50.47803669136263</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008891</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523066</v>
+        <v>166.5519891000303</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549031</v>
+        <v>206.6224700128969</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601777</v>
+        <v>229.907309777115</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372558</v>
+        <v>233.6274504100009</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102184</v>
+        <v>220.6077765276395</v>
       </c>
       <c r="P17" t="n">
-        <v>145.2490952449781</v>
+        <v>188.2836333250453</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819838</v>
+        <v>141.393167362801</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721642</v>
+        <v>82.24735029670727</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832061</v>
+        <v>29.83641167510345</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745405</v>
+        <v>5.731602506100507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609528</v>
+        <v>0.1047465906311914</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042923</v>
+        <v>0.70055458580755</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730929</v>
+        <v>6.765882447141339</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896357</v>
+        <v>24.11997148504065</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632922</v>
+        <v>66.18704531965103</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881681</v>
+        <v>113.1242025687569</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142346</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286402</v>
+        <v>177.5045544829042</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026664</v>
+        <v>182.2025718587803</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973818</v>
+        <v>166.6797570890446</v>
       </c>
       <c r="P18" t="n">
-        <v>103.199234025867</v>
+        <v>133.7751998109172</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092686</v>
+        <v>89.42517835676726</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057178</v>
+        <v>43.4958364767179</v>
       </c>
       <c r="S18" t="n">
-        <v>10.03832872661919</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304142</v>
+        <v>2.823726598057624</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922977</v>
+        <v>0.04608911748733883</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.5873214315872902</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507752</v>
+        <v>5.221821455385184</v>
       </c>
       <c r="I19" t="n">
-        <v>13.62540844768061</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644863</v>
+        <v>41.52362521322141</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933437</v>
+        <v>68.2360717789597</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269911</v>
+        <v>87.31867901980496</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985389</v>
+        <v>92.06530404417857</v>
       </c>
       <c r="N19" t="n">
-        <v>69.3338876662055</v>
+        <v>89.87619689008056</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464877</v>
+        <v>83.01521471199266</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970457</v>
+        <v>71.03385750761187</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784343</v>
+        <v>49.180160966823</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952487</v>
+        <v>26.40810727846124</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400155</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93589539613358</v>
+        <v>2.509464298600239</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851382</v>
+        <v>0.03203571445021586</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.010068377326191</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929186</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686803</v>
+        <v>50.47803669136263</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008891</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523066</v>
+        <v>166.5519891000303</v>
       </c>
       <c r="L20" t="n">
-        <v>159.3963654549031</v>
+        <v>206.6224700128969</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601777</v>
+        <v>229.907309777115</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372558</v>
+        <v>233.6274504100009</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102184</v>
+        <v>220.6077765276395</v>
       </c>
       <c r="P20" t="n">
-        <v>145.2490952449781</v>
+        <v>188.2836333250453</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819838</v>
+        <v>141.393167362801</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721642</v>
+        <v>82.24735029670727</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832061</v>
+        <v>29.83641167510345</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745405</v>
+        <v>5.731602506100507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609528</v>
+        <v>0.1047465906311914</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042923</v>
+        <v>0.70055458580755</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730929</v>
+        <v>6.765882447141339</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896357</v>
+        <v>24.11997148504065</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632922</v>
+        <v>66.18704531965103</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881681</v>
+        <v>113.1242025687569</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142346</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286402</v>
+        <v>177.5045544829042</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026664</v>
+        <v>182.2025718587803</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973818</v>
+        <v>166.6797570890446</v>
       </c>
       <c r="P21" t="n">
-        <v>103.199234025867</v>
+        <v>133.7751998109172</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092686</v>
+        <v>89.42517835676726</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057178</v>
+        <v>43.4958364767179</v>
       </c>
       <c r="S21" t="n">
-        <v>10.03832872661919</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304142</v>
+        <v>2.823726598057624</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922977</v>
+        <v>0.04608911748733883</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.5873214315872902</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507752</v>
+        <v>5.221821455385184</v>
       </c>
       <c r="I22" t="n">
-        <v>13.62540844768061</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644863</v>
+        <v>41.52362521322141</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933437</v>
+        <v>68.2360717789597</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269911</v>
+        <v>87.31867901980496</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985389</v>
+        <v>92.06530404417857</v>
       </c>
       <c r="N22" t="n">
-        <v>69.3338876662055</v>
+        <v>89.87619689008056</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464877</v>
+        <v>83.01521471199266</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970457</v>
+        <v>71.03385750761187</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784343</v>
+        <v>49.180160966823</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952487</v>
+        <v>26.40810727846124</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400155</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93589539613358</v>
+        <v>2.509464298600239</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851382</v>
+        <v>0.03203571445021586</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547639</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784908</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353662</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257375</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>388.162886552649</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>320.8871281512771</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>235.8148076611912</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743901</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007137</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8920740070364</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378196</v>
+        <v>185.8850018835525</v>
       </c>
       <c r="M12" t="n">
-        <v>179.0764432979179</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628866</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
-        <v>379.8491252296669</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6875952514739</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.0814686107544</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345152</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301525</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416945</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4660600454341</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868844</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459805</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547639</v>
+        <v>99.17865997768858</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784908</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353662</v>
+        <v>388.5172695933601</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257375</v>
+        <v>449.0746100426747</v>
       </c>
       <c r="N14" t="n">
-        <v>388.162886552649</v>
+        <v>441.5613112253941</v>
       </c>
       <c r="O14" t="n">
-        <v>320.8871281512771</v>
+        <v>371.3097463686981</v>
       </c>
       <c r="P14" t="n">
-        <v>235.8148076611912</v>
+        <v>278.8493457412584</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743901</v>
+        <v>131.4024681482562</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>50.31259146007137</v>
+        <v>65.44045399339318</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8920740070364</v>
+        <v>239.7480006069765</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378196</v>
+        <v>198.30360372884</v>
       </c>
       <c r="M15" t="n">
-        <v>179.0764432979179</v>
+        <v>501.0755843108858</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5585973628866</v>
+        <v>530.2032341190005</v>
       </c>
       <c r="O15" t="n">
-        <v>379.8491252296669</v>
+        <v>417.9458319213297</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6875952514739</v>
+        <v>318.2635610365241</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.0814686107544</v>
+        <v>159.5206920065949</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345152</v>
+        <v>45.96657995307685</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301525</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6065244416945</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4660600454341</v>
+        <v>134.0083692693092</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868844</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459805</v>
+        <v>68.31241677250536</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547639</v>
+        <v>99.17865997768858</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784908</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353662</v>
+        <v>388.5172695933601</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257375</v>
+        <v>449.0746100426747</v>
       </c>
       <c r="N17" t="n">
-        <v>388.162886552649</v>
+        <v>441.5613112253941</v>
       </c>
       <c r="O17" t="n">
-        <v>320.8871281512771</v>
+        <v>371.3097463686981</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611912</v>
+        <v>278.8493457412584</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743901</v>
+        <v>131.4024681482562</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>121.8578402191585</v>
+        <v>119.0966420582441</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378196</v>
+        <v>384.3954162709655</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566218</v>
+        <v>501.0755843108858</v>
       </c>
       <c r="N18" t="n">
-        <v>488.5585973628866</v>
+        <v>530.2032341190005</v>
       </c>
       <c r="O18" t="n">
-        <v>379.8491252296669</v>
+        <v>417.9458319213297</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6875952514739</v>
+        <v>318.2635610365241</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.5206920065949</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345152</v>
+        <v>45.96657995307685</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301525</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416945</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N19" t="n">
-        <v>113.4660600454341</v>
+        <v>134.0083692693092</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868844</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459805</v>
+        <v>68.31241677250536</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547639</v>
+        <v>99.17865997768858</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784908</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353662</v>
+        <v>388.5172695933601</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257375</v>
+        <v>449.0746100426747</v>
       </c>
       <c r="N20" t="n">
-        <v>388.162886552649</v>
+        <v>441.5613112253941</v>
       </c>
       <c r="O20" t="n">
-        <v>320.8871281512771</v>
+        <v>371.3097463686981</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611912</v>
+        <v>278.8493457412584</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743901</v>
+        <v>131.4024681482562</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>65.44045399339318</v>
       </c>
       <c r="K21" t="n">
-        <v>213.8920740070364</v>
+        <v>213.176880071446</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378196</v>
+        <v>384.3954162709655</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566218</v>
+        <v>501.0755843108858</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628866</v>
+        <v>530.2032341190005</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296669</v>
+        <v>417.9458319213297</v>
       </c>
       <c r="P21" t="n">
-        <v>195.6533614635958</v>
+        <v>318.2635610365241</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345152</v>
+        <v>45.96657995307685</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301525</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416945</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N22" t="n">
-        <v>113.4660600454341</v>
+        <v>134.0083692693092</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868844</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459805</v>
+        <v>68.31241677250536</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36688,7 +36688,7 @@
         <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,7 +36925,7 @@
         <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,10 +37159,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,10 +37399,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P36" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L39" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37636,7 +37636,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
